--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>productId</t>
+  </si>
   <si>
     <t>issuedfrom</t>
   </si>
@@ -49,46 +52,37 @@
     <t>crvno</t>
   </si>
   <si>
-    <t>jagmohan dixit</t>
+    <t>shimla</t>
   </si>
   <si>
     <t>ramkumar</t>
   </si>
   <si>
-    <t>jaggu</t>
-  </si>
-  <si>
     <t>guns</t>
   </si>
   <si>
-    <t>rifles</t>
-  </si>
-  <si>
     <t>bullets</t>
   </si>
   <si>
-    <t>24/2/2022</t>
-  </si>
-  <si>
-    <t>25/2/2022</t>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
   </si>
   <si>
     <t>qwerty123</t>
   </si>
   <si>
+    <t>qwerty12345</t>
+  </si>
+  <si>
     <t>qwerty1234</t>
   </si>
   <si>
-    <t>qwerty12345</t>
-  </si>
-  <si>
     <t>jagmohan firm</t>
   </si>
   <si>
     <t>my firm</t>
-  </si>
-  <si>
-    <t>shimla firm</t>
   </si>
   <si>
     <t>q123</t>
@@ -449,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,110 +483,122 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>320</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1100</v>
+      </c>
+      <c r="L3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>270</v>
-      </c>
-      <c r="K2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>320</v>
       </c>
-      <c r="K3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>550</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
+      <c r="L4">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
